--- a/tests/Unit/Service/Inventory/inventory-link-remark-3.xlsx
+++ b/tests/Unit/Service/Inventory/inventory-link-remark-3.xlsx
@@ -82,7 +82,7 @@
     <t>foo bar</t>
   </si>
   <si>
-    <t>1</t>
+    <t>11</t>
   </si>
   <si>
     <t>5034</t>
